--- a/SpringBoot Day Wise Outline.xlsx
+++ b/SpringBoot Day Wise Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANDEEP\Desktop\Cognizant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C948E538-F8F3-47E0-9697-8BFCE9CEA3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D368961-5A80-43BC-A46E-1A8E250A379C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>DAY-1</t>
   </si>
@@ -196,13 +196,22 @@
   </si>
   <si>
     <t>MYSQL</t>
+  </si>
+  <si>
+    <t>https://github.com/sandeepsomavarapu/Cognizant_Microservices.git</t>
+  </si>
+  <si>
+    <t>https://cloud2.rpsconsulting.in/console/#/</t>
+  </si>
+  <si>
+    <t>Brynae Sunny Kaniyadan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +247,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +275,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -372,10 +401,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -409,6 +439,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -427,21 +471,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,15 +765,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
     <col min="5" max="5" width="54.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="7" max="7" width="62.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="17.21875" customWidth="1"/>
   </cols>
@@ -741,22 +784,22 @@
       </c>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="19"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="20"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="30"/>
+      <c r="E6" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -765,7 +808,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -773,13 +816,16 @@
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="19"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G9" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="20"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
@@ -787,9 +833,12 @@
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11" s="8"/>
       <c r="E11" s="2"/>
+      <c r="G11" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -797,14 +846,14 @@
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="20"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="19" t="s">
         <v>55</v>
       </c>
       <c r="I13" t="s">
@@ -816,7 +865,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -824,103 +873,106 @@
       </c>
     </row>
     <row r="16" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D16" s="19"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="19"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="20"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="9"/>
       <c r="E19" s="1"/>
-      <c r="H19" s="23" t="s">
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="24" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="19"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="19"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="19"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="19"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D25" s="19"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D26" s="20"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
@@ -930,7 +982,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -938,25 +990,25 @@
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D29" s="19"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D30" s="19"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D31" s="19"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="20"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="2" t="s">
         <v>31</v>
       </c>
@@ -966,7 +1018,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="4:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -974,7 +1026,7 @@
       </c>
     </row>
     <row r="35" spans="4:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="19"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="6" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1048,7 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="4:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="21" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -1004,13 +1056,13 @@
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="16"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="4:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D41" s="17"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="6" t="s">
         <v>41</v>
       </c>
@@ -1032,7 +1084,7 @@
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="4:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="24" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="13" t="s">
@@ -1040,7 +1092,7 @@
       </c>
     </row>
     <row r="46" spans="4:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D46" s="20"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="11" t="s">
         <v>44</v>
       </c>
@@ -1145,7 +1197,11 @@
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="D28:D32"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{66BBAE9D-7C6C-4288-9F6D-71550299AA87}"/>
+    <hyperlink ref="G11" r:id="rId2" location="/" xr:uid="{5C30325A-C3CA-466F-AF92-438EB2144382}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>